--- a/data/spring-boot-microservices/available-hotels-service_structure.xlsx
+++ b/data/spring-boot-microservices/available-hotels-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="230">
   <si>
     <t>Class Name</t>
   </si>
@@ -504,27 +504,27 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
     <t>timestamp</t>
   </si>
   <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -534,25 +534,31 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>AUH</t>
   </si>
   <si>
-    <t>$VALUES</t>
+    <t>AUE</t>
   </si>
   <si>
     <t>AUJ</t>
   </si>
   <si>
-    <t>AUE</t>
-  </si>
-  <si>
     <t>COLON</t>
   </si>
   <si>
+    <t>DEFAULT_LOCALE</t>
+  </si>
+  <si>
+    <t>SORT_DESC</t>
+  </si>
+  <si>
     <t>DASH</t>
   </si>
   <si>
-    <t>SORT_DESC</t>
+    <t>BLANK</t>
   </si>
   <si>
     <t>SORT_ASC</t>
@@ -561,70 +567,64 @@
     <t>hasError</t>
   </si>
   <si>
-    <t>DEFAULT_LOCALE</t>
-  </si>
-  <si>
-    <t>BLANK</t>
-  </si>
-  <si>
     <t>availableHotelService</t>
   </si>
   <si>
     <t>hotelServiceClient</t>
   </si>
   <si>
+    <t>RESPONSE_STATUS_SUCCESS</t>
+  </si>
+  <si>
     <t>RESPONSE_STATUS_FAILED</t>
   </si>
   <si>
-    <t>RESPONSE_STATUS_SUCCESS</t>
+    <t>RESPONSE_CODE_BAD_REQUEST</t>
+  </si>
+  <si>
+    <t>RESPONSE_CODE_FORBIDDEN</t>
+  </si>
+  <si>
+    <t>FAILED_GET_CODE</t>
+  </si>
+  <si>
+    <t>RESPONSE_CODE_UNAUTHORIZED</t>
   </si>
   <si>
     <t>SUCCESS_RESPONSE_CODE</t>
   </si>
   <si>
-    <t>FAILED_GET_CODE</t>
-  </si>
-  <si>
-    <t>RESPONSE_CODE_UNAUTHORIZED</t>
-  </si>
-  <si>
-    <t>RESPONSE_CODE_FORBIDDEN</t>
-  </si>
-  <si>
     <t>NO_CONTENT</t>
   </si>
   <si>
+    <t>RESPONSE_CODE_SUCCESS</t>
+  </si>
+  <si>
     <t>RESPONSE_CODE_CREATED</t>
   </si>
   <si>
+    <t>FAILED_RESPONSE_CODE</t>
+  </si>
+  <si>
+    <t>FAILED_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>RESPONSE_CODE_NOT_FOUND</t>
+  </si>
+  <si>
     <t>SUCCESS_CREATE_CODE</t>
   </si>
   <si>
-    <t>RESPONSE_CODE_BAD_REQUEST</t>
-  </si>
-  <si>
-    <t>RESPONSE_CODE_NOT_FOUND</t>
-  </si>
-  <si>
-    <t>RESPONSE_CODE_SUCCESS</t>
-  </si>
-  <si>
-    <t>FAILED_RESPONSE_CODE</t>
-  </si>
-  <si>
-    <t>FAILED_AUTH_CODE</t>
-  </si>
-  <si>
     <t>fare</t>
   </si>
   <si>
     <t>hotelName</t>
   </si>
   <si>
+    <t>aminities</t>
+  </si>
+  <si>
     <t>provider</t>
-  </si>
-  <si>
-    <t>aminities</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -5430,7 +5430,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5452,10 +5452,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -5463,7 +5463,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>222</v>
@@ -5474,7 +5474,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>222</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>222</v>
@@ -5496,7 +5496,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>228</v>
@@ -5504,10 +5504,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>222</v>
@@ -5515,13 +5515,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -5529,10 +5529,10 @@
         <v>37</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
@@ -5540,10 +5540,10 @@
         <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
@@ -5551,7 +5551,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>222</v>
@@ -5562,7 +5562,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>222</v>
@@ -5573,7 +5573,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>222</v>
@@ -5584,7 +5584,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>222</v>
@@ -5595,7 +5595,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>222</v>
@@ -5606,7 +5606,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>222</v>
@@ -5617,7 +5617,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>222</v>
@@ -5628,7 +5628,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>222</v>
@@ -5639,7 +5639,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>222</v>
@@ -5650,7 +5650,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>222</v>
@@ -5661,7 +5661,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>222</v>
@@ -5672,7 +5672,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>222</v>
@@ -5683,7 +5683,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>222</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>222</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>222</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>222</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>222</v>
@@ -5738,10 +5738,10 @@
         <v>56</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
@@ -5749,10 +5749,10 @@
         <v>56</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
@@ -5760,161 +5760,161 @@
         <v>56</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>222</v>
@@ -5922,32 +5922,32 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>228</v>
@@ -5955,98 +5955,98 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>222</v>
@@ -6054,45 +6054,298 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B75" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B83" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C83" t="s" s="0">
         <v>222</v>
       </c>
     </row>
@@ -6315,7 +6568,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -6343,7 +6596,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -6365,7 +6618,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>9</v>
@@ -6393,13 +6646,13 @@
         <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -6407,13 +6660,13 @@
         <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -6421,13 +6674,13 @@
         <v>56</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -6435,13 +6688,13 @@
         <v>56</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -6463,7 +6716,7 @@
         <v>70</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -6477,7 +6730,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
@@ -6491,7 +6744,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
@@ -6508,7 +6761,7 @@
         <v>167</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>168</v>
@@ -6519,13 +6772,13 @@
         <v>86</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>66</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -6536,7 +6789,7 @@
         <v>167</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>168</v>
@@ -6547,13 +6800,13 @@
         <v>86</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>66</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -6564,10 +6817,10 @@
         <v>170</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -6578,10 +6831,10 @@
         <v>171</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -6679,7 +6932,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -6707,7 +6960,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -6715,7 +6968,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>34</v>
@@ -6729,7 +6982,7 @@
         <v>58</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
@@ -6743,7 +6996,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
@@ -6757,13 +7010,13 @@
         <v>58</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -6771,13 +7024,13 @@
         <v>58</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -7043,7 +7296,7 @@
         <v>34</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
@@ -7057,7 +7310,7 @@
         <v>34</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7561,7 +7814,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>206</v>
@@ -7595,7 +7848,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>206</v>
@@ -7663,7 +7916,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>206</v>
@@ -7782,7 +8035,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>206</v>
@@ -7833,7 +8086,7 @@
         <v>70</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>206</v>
@@ -7850,7 +8103,7 @@
         <v>70</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>206</v>
